--- a/CORPFUTURA_v2/src/UTILIDADES/AnalisisCreditos.xlsx
+++ b/CORPFUTURA_v2/src/UTILIDADES/AnalisisCreditos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -252,9 +252,6 @@
     <t>TOTALES</t>
   </si>
   <si>
-    <t>motocicleta</t>
-  </si>
-  <si>
     <t>PASIVOS</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
   </si>
   <si>
     <t>(=) UTILIDAD DE OPERACIÓN</t>
-  </si>
-  <si>
-    <t>soluciones financieras</t>
   </si>
   <si>
     <t>Alquiler de vivienda</t>
@@ -482,9 +476,6 @@
   </si>
   <si>
     <t>FECHA DE VISITA:</t>
-  </si>
-  <si>
-    <t>25 DE MAYO DE 2012</t>
   </si>
   <si>
     <t>BALANCE GENERAL AL  31 DE ENERO  DE 2012</t>
@@ -2118,13 +2109,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2459,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV79"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2543,7 +2534,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16">
         <f ca="1">anexos!H4</f>
-        <v>43127</v>
+        <v>43133</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="6"/>
@@ -3767,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="18" customHeight="1"/>
@@ -3823,7 +3814,7 @@
       </c>
       <c r="H4" s="61">
         <f ca="1">TODAY()</f>
-        <v>43127</v>
+        <v>43133</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
@@ -3940,7 +3931,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="83">
+        <v>1</v>
+      </c>
       <c r="B15" s="327"/>
       <c r="C15" s="327"/>
       <c r="D15" s="84"/>
@@ -3949,7 +3942,9 @@
       <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="87"/>
+      <c r="A16" s="87">
+        <v>2</v>
+      </c>
       <c r="B16" s="328"/>
       <c r="C16" s="328"/>
       <c r="D16" s="88"/>
@@ -4049,9 +4044,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="113"/>
-      <c r="C25" s="113" t="s">
-        <v>72</v>
-      </c>
+      <c r="C25" s="113"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
       <c r="F25" s="114"/>
@@ -4091,7 +4084,7 @@
     </row>
     <row r="30" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="116"/>
       <c r="D30" s="77"/>
@@ -4104,7 +4097,7 @@
       </c>
       <c r="C31" s="116"/>
       <c r="D31" s="118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="78"/>
       <c r="F31" s="78"/>
@@ -4114,25 +4107,25 @@
         <v>65</v>
       </c>
       <c r="B32" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="D32" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="E32" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="123" t="s">
+      <c r="F32" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="123" t="s">
+      <c r="G32" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="119" t="s">
+      <c r="H32" s="119" t="s">
         <v>80</v>
-      </c>
-      <c r="H32" s="119" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
@@ -4301,7 +4294,7 @@
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1">
       <c r="B43" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="56"/>
       <c r="E43" s="116"/>
@@ -4389,7 +4382,7 @@
     </row>
     <row r="52" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B52" s="142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="143"/>
       <c r="D52" s="143"/>
@@ -4413,7 +4406,7 @@
     </row>
     <row r="56" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B56" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="148"/>
       <c r="D56" s="143"/>
@@ -4432,7 +4425,9 @@
       <c r="D57" s="152"/>
       <c r="E57" s="153"/>
       <c r="F57" s="154"/>
-      <c r="G57" s="155"/>
+      <c r="G57" s="155">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B58" s="156" t="s">
@@ -4442,7 +4437,9 @@
       <c r="D58" s="138"/>
       <c r="E58" s="71"/>
       <c r="F58" s="157"/>
-      <c r="G58" s="158"/>
+      <c r="G58" s="158">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="159" t="s">
@@ -4463,7 +4460,7 @@
     </row>
     <row r="61" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B61" s="142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="148"/>
       <c r="D61" s="143"/>
@@ -4756,7 +4753,7 @@
     </row>
     <row r="85" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B85" s="138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="137"/>
       <c r="D85" s="138"/>
@@ -4841,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4862,7 +4859,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="167" t="s">
         <v>1</v>
@@ -4870,7 +4867,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="168"/>
       <c r="E2" s="168"/>
@@ -4913,7 +4910,7 @@
       <c r="D7" s="175"/>
       <c r="E7" s="175"/>
       <c r="G7" s="331" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="331"/>
       <c r="I7" s="331"/>
@@ -4957,9 +4954,9 @@
       </c>
       <c r="D11" s="179"/>
       <c r="E11" s="180"/>
-      <c r="G11" s="26">
+      <c r="G11" s="26" t="str">
         <f>Hoja1!B110</f>
-        <v>0</v>
+        <v>Ventas al contado</v>
       </c>
       <c r="H11" s="181">
         <f>Hoja1!G114</f>
@@ -5034,7 +5031,7 @@
       <c r="D17" s="179"/>
       <c r="E17" s="180"/>
       <c r="G17" s="182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="183" t="e">
         <f>Hoja1!G122</f>
@@ -5057,7 +5054,7 @@
       <c r="D19" s="179"/>
       <c r="E19" s="180"/>
       <c r="G19" s="182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="178" t="e">
         <f>I10-I17</f>
@@ -5075,7 +5072,7 @@
       <c r="D21" s="179"/>
       <c r="E21" s="180"/>
       <c r="G21" s="177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="178">
         <f>SUM(H22:H28)</f>
@@ -5213,7 +5210,7 @@
       <c r="D30" s="179"/>
       <c r="E30" s="180"/>
       <c r="G30" s="182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="178" t="e">
         <f>I19-I21</f>
@@ -5247,7 +5244,7 @@
       </c>
       <c r="I33" s="178">
         <f>SUM(H34:H40)</f>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
@@ -5272,7 +5269,10 @@
     <row r="35" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="D35" s="179"/>
       <c r="E35" s="180"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="26">
+        <f>Hoja1!B141</f>
+        <v>0</v>
+      </c>
       <c r="H35" s="184">
         <v>0</v>
       </c>
@@ -5283,11 +5283,14 @@
       </c>
       <c r="C36" s="185">
         <f>SUM(B37:B44)</f>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="D36" s="179"/>
       <c r="E36" s="180"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="26">
+        <f>Hoja1!B142</f>
+        <v>0</v>
+      </c>
       <c r="H36" s="184">
         <v>0</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="174">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D37" s="179"/>
       <c r="E37" s="180"/>
@@ -5312,19 +5315,18 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A38" s="5"/>
       <c r="B38" s="174">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D38" s="179"/>
       <c r="E38" s="180"/>
-      <c r="G38" s="26" t="s">
-        <v>100</v>
+      <c r="G38" s="26">
+        <f>Hoja1!B144</f>
+        <v>0</v>
       </c>
       <c r="H38" s="184">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
@@ -5343,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="186">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="D40" s="179"/>
       <c r="E40" s="180"/>
@@ -5414,8 +5416,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="185">
-        <f>SUM(B47:B53)</f>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="D46" s="179"/>
       <c r="E46" s="180"/>
@@ -5434,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="174">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D47" s="179"/>
       <c r="E47" s="180"/>
@@ -5473,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="174">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D49" s="179"/>
       <c r="E49" s="180"/>
@@ -5492,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="186">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="D50" s="179"/>
       <c r="E50" s="180"/>
@@ -5546,7 +5547,7 @@
       </c>
       <c r="C55" s="178">
         <f>C46+C36</f>
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="D55" s="179"/>
       <c r="E55" s="180"/>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="C57" s="185">
         <f>C34-C55</f>
-        <v>-1140</v>
+        <v>0</v>
       </c>
       <c r="D57" s="179"/>
       <c r="E57" s="180"/>
@@ -5592,7 +5593,7 @@
       <c r="D60" s="179"/>
       <c r="E60" s="180"/>
       <c r="G60" s="177" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I60" s="178" t="e">
         <f>I30-I33-I42-H35</f>
@@ -5602,7 +5603,7 @@
     <row r="61" spans="1:9" ht="15" thickTop="1"/>
     <row r="64" spans="1:9">
       <c r="A64" s="191" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" s="192"/>
       <c r="C64" s="192"/>
@@ -5622,23 +5623,23 @@
       <c r="D65" s="197"/>
       <c r="E65" s="197"/>
       <c r="F65" s="193"/>
-      <c r="G65" s="198">
+      <c r="G65" s="198" t="e">
         <f>C10/C36</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="196" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" s="192"/>
       <c r="C66" s="192"/>
       <c r="D66" s="193"/>
       <c r="E66" s="193"/>
       <c r="F66" s="193"/>
-      <c r="G66" s="198">
+      <c r="G66" s="198" t="e">
         <f>C10-B18/C46</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5695,7 +5696,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="191" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="192"/>
       <c r="C71" s="192"/>
@@ -5706,7 +5707,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="196" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72" s="192"/>
       <c r="C72" s="192"/>
@@ -5720,7 +5721,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="196" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73" s="203"/>
       <c r="C73" s="192"/>
@@ -5803,7 +5804,7 @@
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="B82" s="211" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5825,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="18" customHeight="1"/>
@@ -5919,7 +5920,9 @@
       <c r="C6" s="69"/>
       <c r="D6" s="70"/>
       <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
+      <c r="F6" s="72">
+        <v>0</v>
+      </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
     </row>
@@ -5931,19 +5934,23 @@
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
+      <c r="F7" s="72">
+        <v>0</v>
+      </c>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="68"/>
       <c r="B8" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="70"/>
       <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="F8" s="72">
+        <v>0</v>
+      </c>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
@@ -5952,12 +5959,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="70"/>
       <c r="E9" s="71"/>
-      <c r="F9" s="74"/>
+      <c r="F9" s="74">
+        <v>0</v>
+      </c>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
     </row>
@@ -5966,12 +5975,12 @@
         <v>65</v>
       </c>
       <c r="B10" s="218" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="98"/>
       <c r="E10" s="219" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="220">
         <f>SUM(F11:F17)</f>
@@ -6062,7 +6071,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="B18" s="231" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="77"/>
@@ -6073,34 +6082,36 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="232" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="233" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="233" t="s">
+      <c r="D19" s="235" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="234" t="s">
+      <c r="E19" s="236" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="235" t="s">
+      <c r="F19" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="G19" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="236" t="s">
+      <c r="H19" s="232" t="s">
         <v>120</v>
-      </c>
-      <c r="G19" s="232" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="232" t="s">
-        <v>122</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
-      <c r="A20" s="87"/>
+      <c r="A20" s="87">
+        <v>1</v>
+      </c>
       <c r="B20" s="237"/>
       <c r="C20" s="238"/>
       <c r="D20" s="239"/>
@@ -6124,7 +6135,9 @@
       <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
-      <c r="A21" s="87"/>
+      <c r="A21" s="87">
+        <v>1</v>
+      </c>
       <c r="B21" s="237"/>
       <c r="C21" s="238"/>
       <c r="D21" s="242"/>
@@ -6395,7 +6408,7 @@
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
-    <row r="32" spans="1:13" ht="11.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="87"/>
       <c r="B32" s="124"/>
       <c r="C32" s="244"/>
@@ -6420,7 +6433,9 @@
       <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="87"/>
+      <c r="A33" s="87">
+        <v>1</v>
+      </c>
       <c r="B33" s="124"/>
       <c r="C33" s="244"/>
       <c r="D33" s="242"/>
@@ -6484,7 +6499,7 @@
     </row>
     <row r="36" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B36" s="231" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="151"/>
       <c r="D36" s="250"/>
@@ -6594,10 +6609,10 @@
       <c r="A49" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="334" t="s">
+      <c r="B49" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="334"/>
+      <c r="C49" s="332"/>
       <c r="D49" s="235" t="s">
         <v>67</v>
       </c>
@@ -6672,7 +6687,7 @@
     </row>
     <row r="56" spans="1:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B56" s="231" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="76"/>
       <c r="D56" s="77"/>
@@ -6681,18 +6696,18 @@
     </row>
     <row r="57" spans="1:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="254"/>
-      <c r="B57" s="333" t="s">
+      <c r="B57" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="333"/>
+      <c r="C57" s="334"/>
       <c r="D57" s="255" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="256" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F57" s="256" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G57" s="254" t="s">
         <v>70</v>
@@ -6766,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="56" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" s="56" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A64" s="87"/>
       <c r="B64" s="328"/>
       <c r="C64" s="328"/>
@@ -6779,10 +6794,10 @@
     </row>
     <row r="65" spans="1:7" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A65" s="87"/>
-      <c r="B65" s="332" t="s">
+      <c r="B65" s="333" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="332"/>
+      <c r="C65" s="333"/>
       <c r="D65" s="257"/>
       <c r="E65" s="258"/>
       <c r="F65" s="258"/>
@@ -6956,7 +6971,7 @@
     </row>
     <row r="85" spans="1:8" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B85" s="101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="116"/>
       <c r="D85" s="77"/>
@@ -6969,14 +6984,14 @@
       </c>
       <c r="C86" s="116"/>
       <c r="D86" s="248" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E86" s="78"/>
       <c r="F86" s="78"/>
     </row>
     <row r="87" spans="1:8" s="56" customFormat="1" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="B87" s="231" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" s="76"/>
       <c r="D87" s="77"/>
@@ -6992,11 +7007,11 @@
         <v>65</v>
       </c>
       <c r="B88" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="267"/>
       <c r="D88" s="268" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="228"/>
       <c r="F88" s="269"/>
@@ -7011,7 +7026,7 @@
       <c r="B89" s="69"/>
       <c r="C89" s="267"/>
       <c r="D89" s="268" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E89" s="228"/>
       <c r="F89" s="269"/>
@@ -7026,7 +7041,7 @@
       <c r="B90" s="69"/>
       <c r="C90" s="267"/>
       <c r="D90" s="268" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E90" s="228"/>
       <c r="F90" s="269"/>
@@ -7041,7 +7056,7 @@
       <c r="B91" s="69"/>
       <c r="C91" s="267"/>
       <c r="D91" s="271" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E91" s="251"/>
       <c r="F91" s="272"/>
@@ -7056,7 +7071,7 @@
       <c r="B92" s="69"/>
       <c r="C92" s="267"/>
       <c r="D92" s="228" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E92" s="228"/>
       <c r="F92" s="269"/>
@@ -7080,25 +7095,25 @@
         <v>65</v>
       </c>
       <c r="B94" s="273" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="245" t="s">
+      <c r="D94" s="255" t="s">
         <v>76</v>
       </c>
-      <c r="D94" s="255" t="s">
+      <c r="E94" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="E94" s="256" t="s">
+      <c r="F94" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="F94" s="256" t="s">
+      <c r="G94" s="254" t="s">
         <v>79</v>
       </c>
-      <c r="G94" s="254" t="s">
+      <c r="H94" s="254" t="s">
         <v>80</v>
-      </c>
-      <c r="H94" s="254" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="56" customFormat="1" ht="19.5" customHeight="1">
@@ -7320,7 +7335,7 @@
     <row r="107" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="56"/>
       <c r="B107" s="265" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="56"/>
       <c r="D107" s="116"/>
@@ -7356,16 +7371,16 @@
       </c>
       <c r="C109" s="274"/>
       <c r="D109" s="275" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="E109" s="87" t="s">
+      <c r="G109" s="87" t="s">
         <v>131</v>
-      </c>
-      <c r="F109" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="G109" s="87" t="s">
-        <v>133</v>
       </c>
       <c r="H109" s="56"/>
       <c r="I109" s="116"/>
@@ -7376,12 +7391,14 @@
     </row>
     <row r="110" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="56"/>
-      <c r="B110" s="91"/>
+      <c r="B110" s="91" t="s">
+        <v>89</v>
+      </c>
       <c r="C110" s="276" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D110" s="277" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E110" s="278">
         <v>0</v>
@@ -7405,10 +7422,10 @@
       <c r="A111" s="56"/>
       <c r="B111" s="87"/>
       <c r="C111" s="279" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" s="280" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E111" s="281">
         <v>0</v>
@@ -7432,10 +7449,10 @@
       <c r="A112" s="56"/>
       <c r="B112" s="270"/>
       <c r="C112" s="282" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D112" s="283" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E112" s="284">
         <v>0</v>
@@ -7459,12 +7476,13 @@
       <c r="A113" s="56"/>
       <c r="B113" s="87"/>
       <c r="C113" s="279" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D113" s="280" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E113" s="285">
+        <f>SUM(E110:E112)</f>
         <v>0</v>
       </c>
       <c r="F113" s="285">
@@ -7472,7 +7490,6 @@
         <v>0</v>
       </c>
       <c r="G113" s="285">
-        <f>SUM(G110:G112)</f>
         <v>0</v>
       </c>
       <c r="H113" s="56"/>
@@ -7485,7 +7502,7 @@
     <row r="114" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="56"/>
       <c r="B114" s="87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="279"/>
       <c r="D114" s="274"/>
@@ -7526,7 +7543,7 @@
     <row r="116" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="56"/>
       <c r="B116" s="286" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C116" s="287"/>
       <c r="D116" s="288"/>
@@ -7546,7 +7563,7 @@
     <row r="117" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="56"/>
       <c r="B117" s="136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C117" s="137"/>
       <c r="D117" s="138"/>
@@ -7603,7 +7620,7 @@
     <row r="120" spans="1:13" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A120" s="56"/>
       <c r="B120" s="291" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="292"/>
       <c r="D120" s="292"/>
@@ -7638,7 +7655,7 @@
     <row r="122" spans="1:13" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A122" s="56"/>
       <c r="B122" s="95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C122" s="148"/>
       <c r="D122" s="148"/>
@@ -7703,7 +7720,7 @@
     <row r="126" spans="1:13" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A126" s="56"/>
       <c r="B126" s="298" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" s="148"/>
       <c r="D126" s="299"/>
@@ -7742,7 +7759,7 @@
     <row r="128" spans="1:13" customFormat="1" ht="18" customHeight="1">
       <c r="A128" s="56"/>
       <c r="B128" s="162" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C128" s="151"/>
       <c r="D128" s="302"/>
@@ -7772,7 +7789,7 @@
     </row>
     <row r="130" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B130" s="136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C130" s="137"/>
       <c r="D130" s="303"/>
@@ -7860,7 +7877,7 @@
     </row>
     <row r="139" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B139" s="286" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C139" s="138"/>
       <c r="D139" s="288"/>
@@ -7978,7 +7995,7 @@
     </row>
     <row r="149" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B149" s="136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C149" s="137"/>
       <c r="D149" s="138"/>
@@ -8002,7 +8019,7 @@
     </row>
     <row r="151" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B151" s="136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C151" s="137"/>
       <c r="D151" s="138"/>
@@ -8038,7 +8055,7 @@
     </row>
     <row r="154" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B154" s="136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C154" s="137"/>
       <c r="D154" s="138"/>
@@ -8050,7 +8067,7 @@
     </row>
     <row r="155" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1">
       <c r="B155" s="136" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C155" s="137"/>
       <c r="D155" s="138"/>
@@ -8090,7 +8107,7 @@
     </row>
     <row r="159" spans="2:7" s="56" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B159" s="138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C159" s="137"/>
       <c r="D159" s="138"/>
@@ -8183,12 +8200,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
@@ -8198,6 +8209,12 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <pageMargins left="0.70866141732283516" right="0.70866141732283516" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992126012" footer="0.31496062992126012"/>
   <pageSetup paperSize="0" scale="90" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8208,7 +8225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
@@ -8261,17 +8280,15 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="173"/>
-      <c r="G5" s="309" t="s">
-        <v>146</v>
-      </c>
+      <c r="G5" s="309"/>
       <c r="H5" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="331" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B7" s="331"/>
       <c r="C7" s="331"/>
@@ -8308,77 +8325,77 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" s="312"/>
       <c r="C10" s="313"/>
       <c r="D10" s="179"/>
       <c r="E10" s="180"/>
       <c r="G10" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H10" s="312"/>
       <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" s="312"/>
       <c r="C11" s="313"/>
       <c r="D11" s="179"/>
       <c r="E11" s="180"/>
       <c r="G11" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H11" s="312"/>
       <c r="I11" s="179"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" s="312"/>
       <c r="C12" s="313"/>
       <c r="D12" s="179"/>
       <c r="E12" s="180"/>
       <c r="G12" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H12" s="312"/>
       <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" s="312"/>
       <c r="C13" s="313"/>
       <c r="D13" s="179"/>
       <c r="E13" s="180"/>
       <c r="G13" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H13" s="312"/>
       <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="312"/>
       <c r="C14" s="313"/>
       <c r="D14" s="179"/>
       <c r="E14" s="180"/>
       <c r="G14" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H14" s="312"/>
       <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="312"/>
       <c r="C15" s="313"/>
@@ -8388,21 +8405,21 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16" s="312"/>
       <c r="C16" s="313"/>
       <c r="D16" s="179"/>
       <c r="E16" s="180"/>
       <c r="G16" s="182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="179"/>
       <c r="I16" s="312"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B17" s="312"/>
       <c r="C17" s="313"/>
@@ -8414,14 +8431,14 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="312"/>
       <c r="C18" s="313"/>
       <c r="D18" s="179"/>
       <c r="E18" s="180"/>
       <c r="G18" s="182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="179"/>
       <c r="I18" s="311">
@@ -8444,7 +8461,7 @@
       <c r="D20" s="179"/>
       <c r="E20" s="180"/>
       <c r="G20" s="177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="179"/>
       <c r="I20" s="311">
@@ -8462,14 +8479,14 @@
       <c r="D21" s="179"/>
       <c r="E21" s="180"/>
       <c r="G21" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H21" s="312"/>
       <c r="I21" s="179"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" s="312" t="s">
         <v>0</v>
@@ -8478,28 +8495,28 @@
       <c r="D22" s="179"/>
       <c r="E22" s="180"/>
       <c r="G22" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H22" s="312"/>
       <c r="I22" s="179"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" s="312"/>
       <c r="C23" s="313"/>
       <c r="D23" s="179"/>
       <c r="E23" s="180"/>
       <c r="G23" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="312"/>
       <c r="I23" s="179"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" s="312"/>
       <c r="C24" s="313"/>
@@ -8518,7 +8535,7 @@
       <c r="D25" s="179"/>
       <c r="E25" s="180"/>
       <c r="G25" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="312"/>
       <c r="I25" s="179"/>
@@ -8534,14 +8551,14 @@
       <c r="D26" s="179"/>
       <c r="E26" s="180"/>
       <c r="G26" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H26" s="312"/>
       <c r="I26" s="179"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="312"/>
       <c r="C27" s="313"/>
@@ -8555,7 +8572,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" s="312"/>
       <c r="C28" s="313"/>
@@ -8565,14 +8582,14 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="312"/>
       <c r="C29" s="313"/>
       <c r="D29" s="179"/>
       <c r="E29" s="180"/>
       <c r="G29" s="182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="179"/>
       <c r="I29" s="311">
@@ -8581,7 +8598,7 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B30" s="312"/>
       <c r="C30" s="313"/>
@@ -8626,7 +8643,7 @@
       <c r="D33" s="179"/>
       <c r="E33" s="180"/>
       <c r="G33" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H33" s="316" t="s">
         <v>0</v>
@@ -8639,7 +8656,7 @@
       <c r="D34" s="179"/>
       <c r="E34" s="180"/>
       <c r="G34" s="26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H34" s="316"/>
     </row>
@@ -8654,56 +8671,56 @@
       <c r="D35" s="179"/>
       <c r="E35" s="180"/>
       <c r="G35" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H35" s="316"/>
       <c r="I35" s="179"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B36" s="312"/>
       <c r="C36" s="313"/>
       <c r="D36" s="179"/>
       <c r="E36" s="180"/>
       <c r="G36" s="26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H36" s="316"/>
       <c r="I36" s="179"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B37" s="312"/>
       <c r="C37" s="313"/>
       <c r="D37" s="179"/>
       <c r="E37" s="180"/>
       <c r="G37" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H37" s="316"/>
       <c r="I37" s="179"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" s="312"/>
       <c r="C38" s="313"/>
       <c r="D38" s="179"/>
       <c r="E38" s="180"/>
       <c r="G38" s="26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H38" s="316"/>
       <c r="I38" s="179"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B39" s="312"/>
       <c r="C39" s="313"/>
@@ -8719,7 +8736,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B40" s="312"/>
       <c r="C40" s="313"/>
@@ -8730,7 +8747,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B41" s="312"/>
       <c r="C41" s="313"/>
@@ -8746,7 +8763,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B42" s="312" t="s">
         <v>0</v>
@@ -8781,7 +8798,7 @@
       <c r="D44" s="179"/>
       <c r="E44" s="180"/>
       <c r="G44" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H44" s="319"/>
       <c r="I44" s="179"/>
@@ -8797,42 +8814,42 @@
       <c r="D45" s="179"/>
       <c r="E45" s="180"/>
       <c r="G45" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H45" s="319"/>
       <c r="I45" s="179"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A46" s="320" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B46" s="179"/>
       <c r="C46" s="179"/>
       <c r="D46" s="179"/>
       <c r="E46" s="180"/>
       <c r="G46" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H46" s="319"/>
       <c r="I46" s="179"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A47" s="320" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="179"/>
       <c r="C47" s="179"/>
       <c r="D47" s="179"/>
       <c r="E47" s="180"/>
       <c r="G47" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H47" s="319"/>
       <c r="I47" s="179"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A48" s="189" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B48" s="312"/>
       <c r="C48" s="313"/>
@@ -8846,7 +8863,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A49" s="189" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" s="312"/>
       <c r="C49" s="313"/>
@@ -8862,14 +8879,14 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A50" s="189" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" s="312"/>
       <c r="C50" s="313"/>
       <c r="D50" s="179"/>
       <c r="E50" s="180"/>
       <c r="G50" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H50" s="319"/>
       <c r="I50" s="179" t="s">
@@ -8878,14 +8895,14 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickTop="1" thickBot="1">
       <c r="A51" s="189" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" s="312"/>
       <c r="C51" s="313"/>
       <c r="D51" s="179"/>
       <c r="E51" s="180"/>
       <c r="G51" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H51" s="319"/>
     </row>
@@ -8898,7 +8915,7 @@
       <c r="D52" s="179"/>
       <c r="E52" s="180"/>
       <c r="G52" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H52" s="319"/>
       <c r="I52" s="179"/>
@@ -8910,7 +8927,7 @@
       <c r="D53" s="179"/>
       <c r="E53" s="180"/>
       <c r="G53" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H53" s="319"/>
       <c r="I53" s="179"/>
@@ -8922,7 +8939,7 @@
       <c r="D54" s="179"/>
       <c r="E54" s="180"/>
       <c r="G54" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H54" s="319"/>
       <c r="I54" s="179"/>
@@ -8946,7 +8963,7 @@
       <c r="D56" s="179"/>
       <c r="E56" s="180"/>
       <c r="G56" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H56" s="319"/>
       <c r="I56" s="179"/>
@@ -8973,7 +8990,7 @@
       <c r="D58" s="179"/>
       <c r="E58" s="180"/>
       <c r="G58" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H58" s="319"/>
       <c r="I58" s="179"/>
@@ -8987,7 +9004,7 @@
       <c r="D59" s="179"/>
       <c r="E59" s="180"/>
       <c r="G59" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H59" s="319"/>
       <c r="I59" s="179"/>
@@ -9011,7 +9028,7 @@
       <c r="D61" s="179"/>
       <c r="E61" s="180"/>
       <c r="G61" s="182" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H61" s="179"/>
       <c r="I61" s="311">
@@ -9021,7 +9038,7 @@
     <row r="62" spans="1:9" ht="15" thickTop="1"/>
     <row r="65" spans="1:7">
       <c r="A65" s="191" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
@@ -9047,7 +9064,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="196" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="193"/>
       <c r="C67" s="193"/>
@@ -9110,7 +9127,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="191" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B72" s="193"/>
       <c r="C72" s="193"/>
@@ -9121,7 +9138,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="196" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" s="193"/>
       <c r="C73" s="193"/>
@@ -9135,7 +9152,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="196" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="322"/>
       <c r="C74" s="193"/>
@@ -9213,7 +9230,7 @@
         <v>59</v>
       </c>
       <c r="B82" s="323" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C82" s="210"/>
       <c r="G82" s="210"/>
@@ -9234,7 +9251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
